--- a/bots/crawl_ch/output/toilet_coop_2022-08-22.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,109 +531,109 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Super Soft Aloe Vera feucht FSC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -642,75 +642,75 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -745,251 +745,233 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.07/1ST</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.91/1Rol</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>192BLT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.91/1Rol</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>192BLT</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1003,96 +985,114 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.40/1ST</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.40/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1126,46 +1126,46 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1199,90 +1199,74 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6638996</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Oecoplan Allzweck Papiertücher</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>176BLT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1339,180 +1323,196 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6638996</t>
+          <t>4489511</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>176BLT</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.97/1Rol</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher 2.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4489511</t>
+          <t>6149220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-16-rollen/p/4489511</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>72ST</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6149220</t>
+          <t>6478814</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
+          <t>Super Silk Soft mit Baumwolle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-soft-mit-baumwolle/p/6478814</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>72ST</t>
+          <t>15ST</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.14/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1532,60 +1532,60 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
+          <t>Super Silk Soft mit Baumwolle 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6478814</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-soft-mit-baumwolle/p/6478814</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.14/1ST</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1605,43 +1605,43 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle 2.10 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1683,55 +1683,55 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1751,60 +1751,60 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>6866582</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Tempo Bamboo Eco Box</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>90ST</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1824,39 +1824,39 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6866582</t>
+          <t>4687972</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box</t>
+          <t>Taschentücher Strong 10x10 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1867,17 +1867,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.18/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1897,60 +1897,60 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
+          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4687972</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.18/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1970,60 +1970,60 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2043,112 +2043,94 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2162,48 +2144,64 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.93/1Rol</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2217,7 +2215,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2247,126 +2245,128 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6996129</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2391,85 +2391,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-22 07:02:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6727164</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>80ST</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>2022-08-22 07:02:49</t>
+          <t>2022-08-22 20:58:12</t>
         </is>
       </c>
     </row>
